--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534D1FB-965C-43A6-9394-C14ABFECB220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1D23A-817A-456D-9BD2-6D4240FD0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>if(!result.isEmpty())</t>
+  </si>
+  <si>
+    <t>Strings should not be concatenated using '+' in a loop</t>
+  </si>
+  <si>
+    <t>InventoryRepository, 41</t>
+  </si>
+  <si>
+    <t>line=line+list.get(index).getPartId()+":";</t>
+  </si>
+  <si>
+    <t>builder.append(list.get(index).getPartId());</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1467,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,8 +1816,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,15 +1997,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
